--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mquiroga\Documents\Repositories\cv-mquiroga\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/mar_quiroga_unimelb_edu_au/Documents/Documents/Repositories/cv-mquiroga/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC43398-8A12-4646-B9E8-0D53B1D51D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="13_ncr:1_{EFDF4B88-B7F7-4F83-A03F-B9BA76722B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155F6E8C-EAC8-4582-B52D-128A96E7F9AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{85B07434-113F-47B4-A29B-B6086A54A3F7}"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
-    <sheet name="skills" sheetId="2" r:id="rId2"/>
-    <sheet name="text" sheetId="3" r:id="rId3"/>
-    <sheet name="contact" sheetId="4" r:id="rId4"/>
+    <sheet name="bib" sheetId="7" r:id="rId2"/>
+    <sheet name="skills" sheetId="2" r:id="rId3"/>
+    <sheet name="text" sheetId="3" r:id="rId4"/>
+    <sheet name="contact" sheetId="4" r:id="rId5"/>
+    <sheet name="extras" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
   <si>
     <t>Where in your CV this entry belongs</t>
   </si>
@@ -86,18 +88,9 @@
     <t>education</t>
   </si>
   <si>
-    <t>PhD in Behavioral and Neural Sciences</t>
-  </si>
-  <si>
-    <t>Rutgers Universty, NJ, USA</t>
-  </si>
-  <si>
     <t>Thesis: Recurrent network dynamics modulate orientation tuning in primary visual cortex</t>
   </si>
   <si>
-    <t>Bachelors/Masters in Mathematics</t>
-  </si>
-  <si>
     <t>National University of Cordoba, Argentina</t>
   </si>
   <si>
@@ -113,9 +106,6 @@
     <t>Research Officer</t>
   </si>
   <si>
-    <t>Burnet Institute, Melbourne, Australia</t>
-  </si>
-  <si>
     <t>Education and Outreach Officer</t>
   </si>
   <si>
@@ -128,9 +118,6 @@
     <t>Graduate Student</t>
   </si>
   <si>
-    <t>Intern</t>
-  </si>
-  <si>
     <t>teaching_positions</t>
   </si>
   <si>
@@ -185,12 +172,6 @@
     <t>intro</t>
   </si>
   <si>
-    <t>I have degrees in mathematics and biology (computational and experimental neuroscience), and extensive additional experience in using scientific programming to solve real-world problems and enhance knowledge sharing. I am passionate about using computational and mathematical tools to improve the quality of research and development, support evidence-based decision-making, and automate repetitive and error-prone data processes; while sharing this knowledge to help build capacity within the research workforce.</t>
-  </si>
-  <si>
-    <t>teaching_experience_aside</t>
-  </si>
-  <si>
     <t>data_science_writing_aside</t>
   </si>
   <si>
@@ -230,30 +211,9 @@
     <t>linkedin</t>
   </si>
   <si>
-    <t>Teaching Assistant</t>
-  </si>
-  <si>
-    <t>Scientific computing in MATLAB (postgraduate), Cellular and Systems Neuroscience, and Calculus I (undergraduate).</t>
-  </si>
-  <si>
-    <t>Mentor, Partners in Science Program</t>
-  </si>
-  <si>
-    <t>Supervised two high school students on a full-time research project</t>
-  </si>
-  <si>
     <t>Cordoba, Argentina</t>
   </si>
   <si>
-    <t>Lecturer and tutor</t>
-  </si>
-  <si>
-    <t>Joint community and University project to teach computer science skills in an underprivileged neighbourhood</t>
-  </si>
-  <si>
-    <t>Mathematical Analysis for Computer Science, Algebra I and Algebra II (undergraduate level)</t>
-  </si>
-  <si>
     <t>[@_marstudio](https://twitter.com/_marstudio)</t>
   </si>
   <si>
@@ -266,48 +226,9 @@
     <t>[linkedin.com/in/marquiroga](https://www.linkedin.com/in/marquiroga/)</t>
   </si>
   <si>
-    <t>Digital Skills Trainer</t>
-  </si>
-  <si>
-    <t>Liberty Science Center, NJ, USA</t>
-  </si>
-  <si>
-    <t>Burnet Institute and The University of Melbourne, Australia</t>
-  </si>
-  <si>
     <t>The University of Melbourne, Australia</t>
   </si>
   <si>
-    <t>Melbourne Data Analytics Platform</t>
-  </si>
-  <si>
-    <t>Public Health</t>
-  </si>
-  <si>
-    <t>Monash University, Australia</t>
-  </si>
-  <si>
-    <t>ARC Centre of Excellence for Integrative Brain Function</t>
-  </si>
-  <si>
-    <t>Department of Physiology</t>
-  </si>
-  <si>
-    <t>Center for Molecular and Behavioral Neuroscience</t>
-  </si>
-  <si>
-    <t>Sophia-Antipolis, France</t>
-  </si>
-  <si>
-    <t>French National Institute for Research in Computer Science and Control (INRIA)</t>
-  </si>
-  <si>
-    <t>Madrid, Spain</t>
-  </si>
-  <si>
-    <t>GMS Management Solutions</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -371,9 +292,6 @@
     <t>[mariadelmarq@gmail.com](mailto:mariadelmarq@gmail.com)</t>
   </si>
   <si>
-    <t>Run workshops and mentor staff and students on Python, R, Stata, OpenRefine, and version control using git</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -429,13 +347,528 @@
   </si>
   <si>
     <t>Evaluate the impact of the Medically Supervised Injecting Room in North Richmond, using Stata, R, and Git to clean, manage, curate, analyse, describe, and present:{newlevel} Self-report interview data from SuperMIX, a cohort study of people who inject drugs, published in &lt;i&gt;&lt;a href="https://academic.oup.com/ije/article-abstract/51/3/e123/6485040?redirectedFrom=fulltext" target="_blank"&gt; The International Journal of Epidemiology&lt;/a&gt;&lt;/i&gt;{newlevel}  Record linkage data from a range of health systems in Australia and Victoria: MBS, PBS, ADIS, VAED, VEMD, VACIS, and NDI{newlevel}  Present results orally, in a &lt;a href="https://content.health.vic.gov.au/sites/default/files/migrated/files/collections/research-and-reports/r/review-of-the-medically-supervised-injecting-room-june-2020.pdf" target="_blank"&gt;written report&lt;/a&gt; to the Centre for Evaluation Research (DHHS), and in &lt;i&gt;&lt;a href = "https://www.ajpmonline.org/article/S0749-3797(21)00180-X/fulltext" target="_blank"&gt; The American Journal of preventive medicine&lt;/a&gt;&lt;/i&gt;{newline} Design and develop a cost-effectiveness model for take-home naloxone to revert opioid overdoses in Victoria, published in &lt;i&gt;&lt;a href="https://onlinelibrary.wiley.com/doi/10.1111/add.15727" target="_blank"&gt;Addiction&lt;/a&gt;&lt;/i&gt;{newline} Formulate, develop, and implement a quantitative model in Python to optimise the allocation of tuberculosis testing machines (GeneXpert) to health facilities in Vietnam and presented the results in non-technical language for partners in the World Bank, CDC, Global Fund, and National Tuberculosis Program</t>
+  </si>
+  <si>
+    <t>in_academic_cv</t>
+  </si>
+  <si>
+    <t>supervision_mentoring</t>
+  </si>
+  <si>
+    <t>awards_scholarships</t>
+  </si>
+  <si>
+    <t>outreach</t>
+  </si>
+  <si>
+    <t>Presented a series of visual illusions and explanation of their mechanisms to the general public</t>
+  </si>
+  <si>
+    <t>Undergraduate semester abroad program, all expenses paid</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>II National Meeting of Algebra</t>
+  </si>
+  <si>
+    <t>Universidad Nacional del Comahue, Neuquen, Argentina</t>
+  </si>
+  <si>
+    <t>II Meeting of Differential Geometry</t>
+  </si>
+  <si>
+    <t>First Argentine School of Mathematics and Biology</t>
+  </si>
+  <si>
+    <t>Universidad Nacional del Sur, Bahia Blanca, Argentina</t>
+  </si>
+  <si>
+    <t>Workshop on Mathematical Methods and Modeling of Biophysical Phenomena</t>
+  </si>
+  <si>
+    <t>Buzios, Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>Meeting of Mathematicians and Biologists</t>
+  </si>
+  <si>
+    <t>Third Internacional Meeting of Nonlinear PDEs</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Workshop Waves in Fluids II</t>
+  </si>
+  <si>
+    <t>Paraty, Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>Interactive introduction to brain science for Year 1 students</t>
+  </si>
+  <si>
+    <t>Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>Doherty Institute, Australia</t>
+  </si>
+  <si>
+    <t>Attended courses: *Sufficient dimensions reduction in regressions*, *Introduction to the Finite Element Method*, and *Assignment Games*</t>
+  </si>
+  <si>
+    <t>Annual meeting of the Argentinian Mathematical Union (UMA)</t>
+  </si>
+  <si>
+    <t>University of Mendoza, Argentina</t>
+  </si>
+  <si>
+    <t>Attended courses: *About Cordal Graphs and Interval Graphs*, *Mathematical Modeling with Maple*, and *Euler and Partitions*</t>
+  </si>
+  <si>
+    <t>Attended courses: *Elliptic curves*, *Normed spaces and Fourier series*, and *Topics in probability*</t>
+  </si>
+  <si>
+    <t>Attended courses: *Introduction to computational algebra*, *Introduction to algebraic statistics*,*Introduction to molecular and cell biology*, *Computational algebra methods in systems biology*, *Algebraic statistics for computational biology*, and *Algorithmic Analyses in Functional Genomics*</t>
+  </si>
+  <si>
+    <t>Attended courses: *A short look at surfaces*, *Geometric curves in surfaces of revolution*, and *Plain manifolds and crystallographic groups*</t>
+  </si>
+  <si>
+    <t>Attended courses: *Introduction to cryptography*, and *Elemental introduction to brownian movement*</t>
+  </si>
+  <si>
+    <t>Attended courses: *Logic* and *The law of quadratic reciprocity*</t>
+  </si>
+  <si>
+    <t>A five day intensive grounding on the fundamentals of functional Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Lauriston High School</t>
+  </si>
+  <si>
+    <t>Sacred Heart Girls' College Oakleigh</t>
+  </si>
+  <si>
+    <t>Technologies week</t>
+  </si>
+  <si>
+    <t>Albert Park College</t>
+  </si>
+  <si>
+    <t>Scienceworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volunteer STEM expert, Ardoch’s project Magnify </t>
+  </si>
+  <si>
+    <t>Invited to speak about my career in STEM to students in grades 5 and 6 from low SES schools (Broadmeadows Primary School and Mossfiel Primary School)</t>
+  </si>
+  <si>
+    <t>Elevation Secondary College</t>
+  </si>
+  <si>
+    <t>Co-supervisor, MDAP internship program</t>
+  </si>
+  <si>
+    <t>prof_development</t>
+  </si>
+  <si>
+    <t>Event connecting Australia's STEM leaders with policymakers over a month, included sharing my research with MPs and senators from all political parties (e.g. Julian Hill, Katie Allen, Janet Rice)</t>
+  </si>
+  <si>
+    <t>Competitive program to advance scholarship of learning and teaching, including $5000 to conduct research and present at international conferences</t>
+  </si>
+  <si>
+    <t>I am an interdisciplinary researcher, passionate about using computational and mathematical tools to improve the quality of research and development, support evidence-based decision-making, and automate repetitive and error-prone data processes; while sharing this knowledge to help build capacity within the research workforce.</t>
+  </si>
+  <si>
+    <t>Volunteer STEM expert, ATSE’s “Shape your future live” program</t>
+  </si>
+  <si>
+    <t>Presentation to year 8-11 students</t>
+  </si>
+  <si>
+    <t>Run workshops and mentor staff and students on Python, R, Stata, OpenRefine, and Git</t>
+  </si>
+  <si>
+    <t>Selected as an emerging leader for a 3-month program by Swinburne Professional</t>
+  </si>
+  <si>
+    <t>Worked on Shifra, a web-app to help non-English speakers (migrants, refugees, and asylum seekers) find sexual and reproductive health information and services in Australia</t>
+  </si>
+  <si>
+    <t>Go-Girls, organised and MC'ed by Katie Allen MP</t>
+  </si>
+  <si>
+    <t>Invited expert guest on &lt;a href="https://www.abc.net.au/radionational/programs/the-pop-test/computers/13097866" target='_blank'&gt;computers&lt;/a&gt; for comedy/science podcast</t>
+  </si>
+  <si>
+    <t>Selected as &lt;a href="https://scienceandtechnologyaustralia.org.au/profile/dr-maria-del-mar-quiroga/" target='_blank'&gt;one&lt;/a&gt; of 60 experts in STEM in Australia, including a full scholarship</t>
+  </si>
+  <si>
+    <t>Wrote and edited &lt;a href="https://www.brainfunction.edu.au/discovery/" target='_blank'&gt;lay summaries of brain research&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Led an &lt;a href="https://www.facebook.com/watch/live/?ref=watch_permalink&amp;v=799502516882332" target='_blank'&gt;on-stage demonstration&lt;/a&gt; of a brain-computer interface to an audience of 400 people</t>
+  </si>
+  <si>
+    <t>Presented my &lt;a href="https://ilearn.med.monash.edu.au/physiology/experiments" target="_blank"&gt;online neuroscience simulations&lt;/a&gt; to high school students and the general public</t>
+  </si>
+  <si>
+    <t>Research Internship</t>
+  </si>
+  <si>
+    <t>Professional Internship</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <r>
+      <t>__Notes:__ * denotes refereed journals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Impact factor (2021) and journal rankings from InCites Journal Citation Reports (retrieved 23 April 2023), % indicates my approximate contribution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Community and University project to teach computer science in an underprivileged neighbourhood</t>
+  </si>
+  <si>
+    <t>Two-day course on educational psychology, evidence-based classroom practices, and how to apply them to teaching workshops for *The Carpentries*</t>
+  </si>
+  <si>
+    <t>A two-month online course including webinars, community discussions, and quizzes</t>
+  </si>
+  <si>
+    <t>Five Master of Data Science students Lexie Yao, Sophia Nelson, Marc Nguyen, Stephen Kong Luan, and Yulun Huang</t>
+  </si>
+  <si>
+    <t>Five Master of Data Science students, 10hr/week over 12 weeks</t>
+  </si>
+  <si>
+    <t>Supervised two high school students on an 8-week full-time research project</t>
+  </si>
+  <si>
+    <t>Steering committee member, Discovery Research program, Computational Sciences Initiative</t>
+  </si>
+  <si>
+    <t>Co-organiser, Center for Molecular and Behavioral Neuroscience Annual Minisymposium</t>
+  </si>
+  <si>
+    <t>Coordinator, HASS Taskforce, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>A joint venture between MDAP and the Digital Studio to support researchers in the humanities, arts, and social sciences to incorporate digital practices in their research</t>
+  </si>
+  <si>
+    <t>PhD Scholarship, Center for Molecular and Behavioral Neuroscience, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>Grupo Santander Scholarship, Autonomous University of Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Intensive two month courses in probability and computer graphics, all expenses paid</t>
+  </si>
+  <si>
+    <t>Superstars of STEM, Science and Technology Australia</t>
+  </si>
+  <si>
+    <t>Outstanding Oral Presentation, CMBN Minisymposium, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>USD200 for best oral presentation, won two years in a row</t>
+  </si>
+  <si>
+    <t>Lecturer and tutor, Cordoba, Argentina</t>
+  </si>
+  <si>
+    <t>Brain Awareness Week, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>Brain Awareness Week, Ormond Primary School, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Biomedical Innovation Showcase, Graeme Clark Oration, Melbourne Convention and Exhibition Centre</t>
+  </si>
+  <si>
+    <t>Machines that Read your Mind, keynote of Melbourne Knowledge Week, Deakin Edge, Australia</t>
+  </si>
+  <si>
+    <t>Discovery | The Brain Dialogue, ARC Centre of Excellence for Integrative Brain Function</t>
+  </si>
+  <si>
+    <t>The Pop Test, ABC Radio National</t>
+  </si>
+  <si>
+    <t>Volunteer STEM expert, several schools around Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Invited presentations to speak about my career in STEM to students of 10+ primary and secondary schools; some in collaboration with ATSE, Ardoch, and Members of Parliament</t>
+  </si>
+  <si>
+    <t>Volunteer, Random Hacks of Kindness Summer Hackathon, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>The Conversation Indonesia</t>
+  </si>
+  <si>
+    <t>FAIR Data 101 training, Australian Research Data Commons</t>
+  </si>
+  <si>
+    <t>Carpentries Instructor Training, Monash University, Australia</t>
+  </si>
+  <si>
+    <t>Higher Education Research Program, Monash University, Australia</t>
+  </si>
+  <si>
+    <t>Burnet Institute Leadership Program, Swinburne University of Technology, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Melbourne Aspiring Leaders and Managers Program, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Selected through a competitive process to undertake workshops, written assignments, and peer networks; run by the Melbourne Centre for the Study of Higher Education over a year</t>
+  </si>
+  <si>
+    <t>Science Meets Parliament, Science &amp; Technology Australia</t>
+  </si>
+  <si>
+    <t>fMRI Visiting Fellowship Course, MGH/MIT/HMS Athinoula A. Martinos Center for Biomedical Imaging, Boston, USA</t>
+  </si>
+  <si>
+    <t>Mentor, MDAP internship program, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Co-supervisor, MDAP internship program, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Supervisor, HASS Taskforce, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Line manager of two Level A Research Data Specialists</t>
+  </si>
+  <si>
+    <t>Mentor, Partners in Science Program, Liberty Science Center, NJ, USA</t>
+  </si>
+  <si>
+    <t>Teaching Assistant, National University of Cordoba, Argentina</t>
+  </si>
+  <si>
+    <t>Teaching Assistant, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>Digital Skills Trainer for Researchers, Burnet Institute and The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Introduction to causal inference and regression, Murdoch Children's Research Institute</t>
+  </si>
+  <si>
+    <t>Two full days course on estimating causal effects from observational data</t>
+  </si>
+  <si>
+    <t>Mathematical Analysis for Computer Science, Algebra I, and Algebra II for the undergraduate degrees in mathematics, physicis, astronomy and computer science</t>
+  </si>
+  <si>
+    <t>Scientific computing in MATLAB (GR), Cellular and Systems Neuroscience, and Calculus I (UG)</t>
+  </si>
+  <si>
+    <t>Steering committee member, Digital Skills Summit 2021, eResearch Australasia Conference</t>
+  </si>
+  <si>
+    <t>Co-organizer, First Meeting of Young Researchers in Neuroscience of Cordoba - An interdisciplinary approach, Argentina</t>
+  </si>
+  <si>
+    <t>Elected Student Representative, Executive Committee of the Faculty of Mathematics, Astronomy, and Physics, National University of Cordoba, Argentina</t>
+  </si>
+  <si>
+    <t>Met regularly with Master of Data Science students for career advice</t>
+  </si>
+  <si>
+    <t>Co-authored articles in &lt;a href="http://theconversation.com/pro-government-disinformation-floods-twitter-debates-on-papuan-special-autonomy-new-study-192951" target='_blank'&gt;english&lt;/a&gt; and &lt;a href="http://theconversation.com/riset-disinformasi-pro-pemerintah-mendominasi-debat-di-twitter-tentang-otonomi-khusus-papua-195755" target='_blank'&gt;indonesian&lt;/a&gt;, republished by &lt;a href="https://www.thejakartapost.com/opinion/2022/12/05/pro-government-disinformation-floods-twitter-debates-on-papuan-special-autonomy-new-study.html" target='_blank'&gt;The Jakarta Post&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Summer School Scholarship, Instituto Nacional de Matematica Pura e Aplicada, Rio de Janeiro, Brasil</t>
+  </si>
+  <si>
+    <t>zotero category</t>
+  </si>
+  <si>
+    <t>exported category</t>
+  </si>
+  <si>
+    <t>artwork</t>
+  </si>
+  <si>
+    <t>MISC</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>blog post</t>
+  </si>
+  <si>
+    <t>audio recording</t>
+  </si>
+  <si>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>book section</t>
+  </si>
+  <si>
+    <t>INCOLLECTION</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>INPROCEEDINGS</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>conference paper</t>
+  </si>
+  <si>
+    <t>dictionary entry</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>encyclopedia article</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>forum post</t>
+  </si>
+  <si>
+    <t>hearing</t>
+  </si>
+  <si>
+    <t>instant message</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>journal article</t>
+  </si>
+  <si>
+    <t>ARTICLE</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>manuscript</t>
+  </si>
+  <si>
+    <t>UNPUBLISHED</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>PATENT</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>preprint</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>TECHREPORT</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>statute</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>PHDTHESIS</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>PhD in Behavioral and Neural Sciences, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>Bachelors/Masters in Mathematics, National University of Cordoba, Argentina</t>
+  </si>
+  <si>
+    <t>Melbourne Data Analytics Platform, The University of Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Public Health, Burnet Institute, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>ARC Centre of Excellence for Integrative Brain Function, Monash University, Australia</t>
+  </si>
+  <si>
+    <t>Department of Physiology, Monash University, Australia</t>
+  </si>
+  <si>
+    <t>Center for Molecular and Behavioral Neuroscience, Rutgers University, NJ, USA</t>
+  </si>
+  <si>
+    <t>French National Institute for Research in Computer Science and Control (INRIA), Sophia-Antipolis, France</t>
+  </si>
+  <si>
+    <t>GMS Management Solutions, Madrid, Spain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +889,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,13 +924,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -801,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570CD931-74F7-4CDA-B897-3EB53B743B8B}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +1266,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="7" max="7" width="117.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -860,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -871,13 +1326,10 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>2009</v>
@@ -894,13 +1346,10 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2003</v>
@@ -914,39 +1363,33 @@
     </row>
     <row r="5" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="E5">
         <v>2020</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
+        <v>264</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -955,7 +1398,7 @@
         <v>2020</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -963,16 +1406,13 @@
     </row>
     <row r="7" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="E7">
         <v>2016</v>
@@ -981,7 +1421,7 @@
         <v>2018</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -989,16 +1429,13 @@
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="E8">
         <v>2015</v>
@@ -1007,7 +1444,7 @@
         <v>2018</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1015,22 +1452,19 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="F9">
         <v>2015</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1038,16 +1472,13 @@
     </row>
     <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
+        <v>267</v>
       </c>
       <c r="E10">
         <v>2009</v>
@@ -1056,7 +1487,7 @@
         <v>2015</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1064,22 +1495,19 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="F11">
         <v>2009</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1087,22 +1515,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="F12">
         <v>2007</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1110,16 +1535,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -1130,16 +1552,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>2009</v>
@@ -1153,19 +1572,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
+        <v>207</v>
+      </c>
+      <c r="E15">
+        <v>2005</v>
       </c>
       <c r="F15">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -1173,45 +1592,484 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="F16">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="E17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>2009</v>
+      </c>
+      <c r="F20">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23">
+        <v>2021</v>
+      </c>
+      <c r="F23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24">
+        <v>2011</v>
+      </c>
+      <c r="F24">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25">
         <v>2005</v>
       </c>
-      <c r="F17">
+      <c r="F25">
         <v>2008</v>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28">
+        <v>2012</v>
+      </c>
+      <c r="F28">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F29">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="F31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="F32">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35">
+        <v>2015</v>
+      </c>
+      <c r="F35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44">
+        <v>2016</v>
+      </c>
+      <c r="F44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46">
+        <v>2021</v>
+      </c>
+      <c r="F46">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -1221,11 +2079,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943C828A-9ED4-4D29-9854-137813C1E676}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B792CDA4-3FA5-4F22-ACF2-709E4EE77A78}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,24 +2411,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1261,13 +2436,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1275,13 +2450,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1289,13 +2464,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1303,13 +2478,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1317,13 +2492,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1331,13 +2506,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1345,13 +2520,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1359,13 +2534,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1373,13 +2548,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1387,13 +2562,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1401,10 +2576,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1415,10 +2590,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1429,10 +2604,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1443,10 +2618,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1457,10 +2632,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1471,10 +2646,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1485,13 +2660,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1499,10 +2674,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -1513,10 +2688,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>119</v>
       </c>
       <c r="C21">
         <v>2.5</v>
@@ -1527,10 +2702,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1541,10 +2716,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1555,10 +2730,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1569,10 +2744,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1587,12 +2762,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC9CEF7-C4CC-43A3-9EBB-39E50343BF4B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,51 +2776,61 @@
     <col min="2" max="2" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAA8C1C-4200-4951-8718-77E142808AA7}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,13 +2840,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,65 +2854,65 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1736,4 +2921,287 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1147FE5-3B10-46F3-93E2-3AA70DA4E124}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>